--- a/data/income_statement/2digits/size/73_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/73_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>73-Advertising and market research</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>73-Advertising and market research</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,533 +841,603 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1972240.15773</v>
+        <v>1971521.21863</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2175477.61097</v>
+        <v>2171479.39465</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2640360.65133</v>
+        <v>2618369.78148</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3030728.41907</v>
+        <v>3024478.11193</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3442065.3539</v>
+        <v>3383515.46797</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3549085.93749</v>
+        <v>3495787.39853</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3785169.22193</v>
+        <v>3839466.2943</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4234097.20865</v>
+        <v>4211893.87445</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5181015.485559999</v>
+        <v>5214122.15197</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5408061.75563</v>
+        <v>5606725.22102</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5716324.817650001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5747759.77689</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6976429.641</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1859614.5996</v>
+        <v>1861540.91201</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2077353.15982</v>
+        <v>2080538.11097</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2536520.41987</v>
+        <v>2527889.66062</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2885352.59709</v>
+        <v>2876045.5841</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3227412.49672</v>
+        <v>3175061.80275</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3342223.06679</v>
+        <v>3272103.38472</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3528728.89128</v>
+        <v>3567649.35614</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4012213.35442</v>
+        <v>3966452.27344</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4874683.37426</v>
+        <v>4845873.358560001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5006770.14326</v>
+        <v>5217964.89433</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5170431.988030001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5215040.12784</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6252429.399</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>54020.72759999999</v>
+        <v>49878.21833</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>43684.38079000001</v>
+        <v>39261.96251</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>53748.172</v>
+        <v>45152.27124</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>52550.79111</v>
+        <v>45278.12374</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>95863.83659000001</v>
+        <v>88295.92096</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>91342.33721000001</v>
+        <v>95714.90821000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>142435.96088</v>
+        <v>144845.88051</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>123349.76384</v>
+        <v>116607.02156</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>193662.55099</v>
+        <v>209688.86272</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>183822.81451</v>
+        <v>182285.68978</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>234885.27602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>231508.3743</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>434918.197</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>58604.83053</v>
+        <v>60102.08829000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>54440.07036</v>
+        <v>51679.32117</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>50092.05946</v>
+        <v>45327.84962000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>92825.03087</v>
+        <v>103154.40409</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>118789.02059</v>
+        <v>120157.74426</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>115520.53349</v>
+        <v>127969.1056</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>114004.36977</v>
+        <v>126971.05765</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>98534.09039</v>
+        <v>128834.57945</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>112669.56031</v>
+        <v>158559.93069</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>217468.79786</v>
+        <v>206474.63691</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>311007.5536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>301211.27475</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>289082.045</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>26194.31664</v>
+        <v>25898.83023</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>30986.45</v>
+        <v>28796.02903</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>40608.09542000001</v>
+        <v>38775.83404</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>77203.72537</v>
+        <v>77628.79545999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>64914.44389</v>
+        <v>56023.24921</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>72151.50465999999</v>
+        <v>70767.84406</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>101814.75297</v>
+        <v>104380.29264</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>96611.11571000001</v>
+        <v>110336.13354</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>88517.33624999999</v>
+        <v>95480.36761</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>179539.06532</v>
+        <v>187582.33394</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>185509.02902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>178756.60569</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>165627.619</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>20131.0807</v>
+        <v>20776.19337</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>24999.87121</v>
+        <v>25762.26871</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>38255.95403</v>
+        <v>36726.41285</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>48764.22358000001</v>
+        <v>47018.62649</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>55033.57315</v>
+        <v>45737.29403</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>62812.80841000001</v>
+        <v>62466.13071</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>97955.77537999999</v>
+        <v>96492.67087999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>82096.10523</v>
+        <v>92901.95892</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>73969.81286000001</v>
+        <v>77579.54987999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>150493.48183</v>
+        <v>157536.90194</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>155935.70053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>153576.59618</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>144906.617</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2275.65151</v>
+        <v>1369.05243</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5273.62764</v>
+        <v>2351.80253</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>695.59853</v>
+        <v>534.57826</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1320.53799</v>
+        <v>3493.5786</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6300.74049</v>
+        <v>6702.31754</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>4761.19193</v>
+        <v>3795.84064</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2689.87405</v>
+        <v>6779.48113</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>13384.57169</v>
+        <v>16303.73583</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>13614.18992</v>
+        <v>16972.73426</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>22584.12556</v>
+        <v>20800.03396</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>23051.10332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18669.65934</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>16829.217</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>3787.58443</v>
+        <v>3753.58443</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>712.95115</v>
+        <v>681.95779</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1656.54286</v>
+        <v>1514.84293</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>27118.9638</v>
+        <v>27116.59037</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3580.13025</v>
+        <v>3583.63764</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4577.50432</v>
+        <v>4505.87271</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1169.10354</v>
+        <v>1108.14063</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>1130.43879</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>933.3334699999999</v>
+        <v>928.0834699999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6461.45793</v>
+        <v>9245.398039999998</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6522.22517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6510.35017</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3891.785</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1946045.84109</v>
+        <v>1945622.3884</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2144491.16097</v>
+        <v>2142683.36562</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2599752.55591</v>
+        <v>2579593.94744</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2953524.6937</v>
+        <v>2946849.31647</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3377150.91001</v>
+        <v>3327492.21876</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3476934.43283</v>
+        <v>3425019.55447</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3683354.46896</v>
+        <v>3735086.00166</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4137486.09294</v>
+        <v>4101557.74091</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5092498.14931</v>
+        <v>5118641.78436</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5228522.69031</v>
+        <v>5419142.88708</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5530815.78863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5569003.1712</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6810802.022</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1500829.51225</v>
+        <v>1511269.83914</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1627569.72444</v>
+        <v>1625430.04218</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2037232.10376</v>
+        <v>2030966.65224</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2399347.39581</v>
+        <v>2388030.033379999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2713517.62892</v>
+        <v>2677645.6309</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2707113.8275</v>
+        <v>2648115.13488</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2967911.55936</v>
+        <v>2974787.21701</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3272866.61543</v>
+        <v>3238938.73451</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4204520.35975</v>
+        <v>4200775.95354</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4249801.17556</v>
+        <v>4439930.37649</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4502316.197430001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4596485.7769</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5625396.782</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>47585.78682</v>
+        <v>38251.62664</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>17421.32148</v>
+        <v>13363.68376</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>47438.50233</v>
+        <v>44638.47167</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>91786.73023999999</v>
+        <v>87959.66095999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>65876.83639</v>
+        <v>61608.82519</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>97308.58268000001</v>
+        <v>95035.33832</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>50697.7578</v>
+        <v>77630.94423000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>32580.3373</v>
+        <v>53764.01785</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>120947.45519</v>
+        <v>117549.86019</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>68481.95032999999</v>
+        <v>68073.22354000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>47346.53663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>47180.21993</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>173178.433</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>177963.2682</v>
+        <v>175696.45537</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>211084.03135</v>
+        <v>206193.04403</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>312641.75192</v>
+        <v>298934.98788</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>343596.22403</v>
+        <v>333476.69092</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>360830.02951</v>
+        <v>372924.06</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>387414.47375</v>
+        <v>366012.01335</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>516329.10865</v>
+        <v>476158.7996099999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>807193.5343000001</v>
+        <v>774105.33559</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1068681.48645</v>
+        <v>1075769.06588</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>392526.56586</v>
+        <v>455550.43659</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>623163.0024999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>742752.4489399999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1779520.6</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1272605.00002</v>
+        <v>1294879.69922</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1397350.06675</v>
+        <v>1401602.4649</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1675487.90156</v>
+        <v>1685755.53261</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1768030.39683</v>
+        <v>1769370.37157</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2286517.44157</v>
+        <v>2242819.42426</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2221368.95363</v>
+        <v>2186045.96577</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2398599.25499</v>
+        <v>2418816.85375</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2431710.52626</v>
+        <v>2410348.18949</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3014012.41681</v>
+        <v>3006578.02617</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3786629.81675</v>
+        <v>3914143.87374</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3828702.91291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3803449.36264</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3671296.098</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2675.45721</v>
+        <v>2442.05791</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1714.30486</v>
+        <v>4270.849490000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1663.94795</v>
+        <v>1637.66008</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>195934.04471</v>
+        <v>197223.30993</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>293.32145</v>
@@ -1475,10 +1446,10 @@
         <v>1021.81744</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2285.43792</v>
+        <v>2180.61942</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1382.21757</v>
+        <v>721.1915799999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>879.0013</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>3103.74539</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>1401.651</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>445216.32884</v>
+        <v>434352.54926</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>516921.4365299999</v>
+        <v>517253.32344</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>562520.45215</v>
+        <v>548627.2951999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>554177.2978899999</v>
+        <v>558819.28309</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>663633.2810899999</v>
+        <v>649846.5878599999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>769820.60533</v>
+        <v>776904.4195899999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>715442.9096</v>
+        <v>760298.7846499999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>864619.47751</v>
+        <v>862619.0064</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>887977.7895599999</v>
+        <v>917865.8308199999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>978721.51475</v>
+        <v>979212.5105900001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1028499.5912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>972517.3942999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1185405.24</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>422780.15357</v>
+        <v>414844.44283</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>439572.99507</v>
+        <v>431256.57854</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>456473.40614</v>
+        <v>459334.99051</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>455682.45452</v>
+        <v>460116.81609</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>613595.97637</v>
+        <v>556748.6915699999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>717768.49713</v>
+        <v>706438.61985</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>705181.48353</v>
+        <v>710953.7809700001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>796854.06701</v>
+        <v>765996.3592599999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>774480.24444</v>
+        <v>801321.9758</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>864276.58785</v>
+        <v>864609.11491</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>965457.08461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>881282.6739200001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>955333.8320000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1362.0381</v>
@@ -1580,10 +1566,10 @@
         <v>1131.46437</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1734.27256</v>
+        <v>1288.0171</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>25199.97824</v>
+        <v>24875.06793</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>1194.90065</v>
@@ -1595,10 +1581,10 @@
         <v>1163.41116</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>15541.87502</v>
+        <v>15185.06054</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>559.4700600000001</v>
+        <v>644.81498</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>4440.95285</v>
@@ -1606,182 +1592,207 @@
       <c r="M21" s="48" t="n">
         <v>8010.86053</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1979.051</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>95310.37589</v>
+        <v>93858.98760000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>98944.33841</v>
+        <v>97393.72547</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>82483.55882999999</v>
+        <v>84358.59469</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>76260.35863</v>
+        <v>86524.65916</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>159542.33953</v>
+        <v>133244.35139</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>174430.26322</v>
+        <v>180209.5412</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>160750.52981</v>
+        <v>159644.76128</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>173406.9545</v>
+        <v>157246.5878</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>169034.04546</v>
+        <v>166009.40162</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>151772.51519</v>
+        <v>154353.7378</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>163051.44745</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>145256.87519</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>169330.514</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>326107.73958</v>
+        <v>319623.41713</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>339497.19229</v>
+        <v>332731.3887</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>372255.57475</v>
+        <v>373688.37872</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>354222.11765</v>
+        <v>348717.089</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>452858.73619</v>
+        <v>422309.43953</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>542135.2774400001</v>
+        <v>525026.1221800001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>543267.54256</v>
+        <v>550145.60853</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>607905.23749</v>
+        <v>593564.71092</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>604886.7289199999</v>
+        <v>634667.7592000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>708063.1198100001</v>
+        <v>705814.42426</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>794394.77663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>728014.9382000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>784024.267</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>22436.17527</v>
+        <v>19508.10643</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>77348.44146</v>
+        <v>85996.74490000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>106047.04601</v>
+        <v>89292.30469</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>98494.84337</v>
+        <v>98702.467</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>50037.30472</v>
+        <v>93097.89629</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>52052.1082</v>
+        <v>70465.79973999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>10261.42607</v>
+        <v>49345.00368</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>67765.4105</v>
+        <v>96622.64714</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>113497.54512</v>
+        <v>116543.85502</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>114444.9269</v>
+        <v>114603.39568</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>63042.50659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>91234.72038</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>230071.408</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>83012.48262000001</v>
+        <v>86097.69633000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>82782.1355</v>
+        <v>74039.48342999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>68200.45063000001</v>
+        <v>57496.33728</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>61222.64419</v>
+        <v>71662.30004</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>62066.03656</v>
+        <v>57226.45949</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>111524.59338</v>
+        <v>99491.66041999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>105071.15023</v>
+        <v>102053.0766</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>102371.44684</v>
+        <v>207244.61364</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>122956.927</v>
+        <v>175583.40374</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>331316.92763</v>
+        <v>328650.7288</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>234917.97107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>183251.88436</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>334223.132</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>551.93399</v>
+        <v>466.41901</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>6618.71808</v>
+        <v>4171.798589999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>888.62041</v>
+        <v>528.9507</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2579.86856</v>
+        <v>13108.97711</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3188.64159</v>
+        <v>3404.49688</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>16766.70833</v>
@@ -1796,28 +1807,33 @@
         <v>1558.46569</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>40014.80348</v>
+        <v>38063.10401</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3701.61479</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1949.79027</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2285.153</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>3143.47905</v>
+        <v>5589.78259</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>4124.56883</v>
+        <v>4850.003110000001</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>3074.90537</v>
+        <v>3066.42204</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>4141.42365</v>
+        <v>4100.8</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>3188.09746</v>
@@ -1829,73 +1845,83 @@
         <v>3163.5101</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>9945.66784</v>
+        <v>120445.66784</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3952.5596</v>
+        <v>28452.5596</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>27118.26882</v>
+        <v>29277.55111</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>5522.36789</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>15948.16209</v>
+        <v>17057.30726</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>12617.93185</v>
+        <v>13397.52391</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>12275.0586</v>
+        <v>11264.83187</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>15261.82937</v>
+        <v>15985.84079</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>15939.31689</v>
+        <v>14277.54313</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>25779.6779</v>
+        <v>22232.94381</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>30113.9799</v>
+        <v>30208.28527</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>32145.05753</v>
+        <v>28357.33431</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>34265.46035</v>
+        <v>32378.75382</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>68085.98797999999</v>
+        <v>65789.32724</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>80787.72401999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>71886.28064999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>51414.593</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>9539.510769999999</v>
+        <v>8918.27507</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>9680.070390000001</v>
+        <v>9320.370140000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>272.84335</v>
+        <v>252.84335</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1785.22615</v>
+        <v>1785.25829</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>2207.34141</v>
@@ -1904,154 +1930,174 @@
         <v>2876.85476</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3384.80115</v>
+        <v>3380.35415</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>4501.384599999999</v>
+        <v>4514.2346</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>5579.60045</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3259.85188</v>
+        <v>3250.08688</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>71.67738</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>13.254</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3222.76396</v>
+        <v>2677.50359</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>860.01036</v>
+        <v>921.93427</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2133.93288</v>
+        <v>2150.29569</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2329.17928</v>
+        <v>2284.38078</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1312.7603</v>
+        <v>1274.4071</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1235.52941</v>
+        <v>556.95534</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>353.3032900000001</v>
+        <v>397.08977</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2410.08313</v>
+        <v>2370.81197</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4253.19196</v>
+        <v>5036.86567</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>13847.01437</v>
+        <v>13720.24207</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>13354.14921</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>12530.29157</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>6673.459</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1145.79314</v>
+        <v>1147.81389</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1118.63203</v>
+        <v>1100.80103</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>6363.62355</v>
+        <v>1668.49381</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2101.75792</v>
+        <v>2026.81372</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>668.4986699999999</v>
+        <v>664.4013199999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4583.2948</v>
+        <v>2484.03994</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1968.56292</v>
+        <v>1235.91294</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>766.2359799999999</v>
+        <v>731.7968499999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1239.77292</v>
+        <v>1185.19494</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1521.15155</v>
+        <v>726.15155</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>33902.21444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1934.00134</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1750.886</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>29731.4783</v>
+        <v>28206.25279</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>19706.10668</v>
+        <v>10900.27232</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>23683.57008</v>
+        <v>14721.43685</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>9214.798580000001</v>
+        <v>8450.53141</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>20442.92815</v>
+        <v>16006.04405</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>24959.71689</v>
+        <v>20567.1801</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>35993.25141</v>
+        <v>34745.00983</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>30394.99592</v>
+        <v>30350.55079</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>38064.46857</v>
+        <v>61837.85445000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>134003.55515</v>
+        <v>117925.36426</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>63414.62967</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>53412.64089</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>125801.133</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>4783.01795</v>
+        <v>4838.470139999999</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>8462.67049</v>
+        <v>8603.603939999999</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>151.75588</v>
+        <v>256.48041</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>53.60244</v>
+        <v>169.82716</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>387.25866</v>
@@ -2060,25 +2106,30 @@
         <v>166.39319</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>384.99699</v>
+        <v>321.08437</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>6.99917</v>
+        <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>100.39034</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>96.92246</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>139.303</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>12.177</v>
@@ -2113,176 +2164,201 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>14934.16637</v>
+        <v>17183.69499</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>19593.42679</v>
+        <v>20773.17612</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>19342.43881</v>
+        <v>23572.88086</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>23754.95824</v>
+        <v>23749.87078</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>14724.84343</v>
+        <v>15810.51948</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>22565.53318</v>
+        <v>21249.70003</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>20077.85612</v>
+        <v>18970.94182</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>20628.5364</v>
+        <v>18894.73184</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>34036.40829</v>
+        <v>39554.10912000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>43466.2944</v>
+        <v>59898.90168</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>34063.20333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>35847.91191</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>146145.351</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>39894.12955</v>
+        <v>44585.6389</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>31730.38342</v>
+        <v>25471.63808</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>42061.9182</v>
+        <v>32475.14764</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>24670.65338</v>
+        <v>29106.88393</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>34971.16471</v>
+        <v>30288.92864</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>42085.13279</v>
+        <v>37711.40427</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>59332.03219999999</v>
+        <v>51057.66248000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>61864.99038</v>
+        <v>62308.47442</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>113839.92624</v>
+        <v>113600.97596</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>169552.56903</v>
+        <v>152223.08378</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>94184.00387999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>82536.1299</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>293172.244</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3129.56756</v>
+        <v>4403.75859</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3345.24893</v>
+        <v>6159.39606</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6038.19236</v>
+        <v>10868.63716</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6195.743229999999</v>
+        <v>9033.675359999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>6908.1794</v>
+        <v>6557.063190000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7494.84054</v>
+        <v>8189.64824</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8822.12234</v>
+        <v>9927.71848</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8350.486570000001</v>
+        <v>7749.20578</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>8450.979160000001</v>
+        <v>6710.46839</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>15863.66259</v>
+        <v>17636.22747</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3162.21132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3150.17487</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9784.620000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3785.73481</v>
+        <v>4369.258080000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5598.45583</v>
+        <v>5441.66749</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3880.10551</v>
+        <v>4085.11282</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6293.67299</v>
+        <v>6610.338650000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5484.51019</v>
+        <v>5539.93038</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5744.37157</v>
+        <v>5752.413270000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>11921.29713</v>
+        <v>7538.37055</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>13399.45456</v>
+        <v>7206.68948</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>11956.40254</v>
+        <v>12278.70707</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>24550.25044</v>
+        <v>25301.48295</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>21227.85507</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>20914.75845</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>10087.67</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>300.22713</v>
+        <v>90.41995</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>401.04241</v>
+        <v>73.35641</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1314.41781</v>
+        <v>1213.24636</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>549.6308399999999</v>
@@ -2291,76 +2367,86 @@
         <v>581.48793</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>245.90513</v>
+        <v>245.87381</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>381.74923</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>118.6853</v>
+        <v>118.36276</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>38558.01351</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1393.41177</v>
+        <v>1265.95346</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>179.0604</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>685.33</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>28051.7992</v>
+        <v>28686.52577</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>20027.88899</v>
+        <v>11985.91496</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>25259.89616</v>
+        <v>12889.72406</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>9601.042240000001</v>
+        <v>10888.09951</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>18271.18488</v>
+        <v>14482.5474</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>24073.9032</v>
+        <v>19144.46512</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>30606.90717</v>
+        <v>28451.37341</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>30308.15416</v>
+        <v>41693.65529</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>47978.25556000001</v>
+        <v>49223.19053</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>120435.87139</v>
+        <v>100761.98491</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>57890.38051</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>45542.27711</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>137016.114</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>35.67679</v>
+        <v>150.20164</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>8.248790000000001</v>
+        <v>11.71667</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>12.65287</v>
@@ -2372,7 +2458,7 @@
         <v>173.19971</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>111.42283</v>
+        <v>46.51491</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0</v>
@@ -2384,22 +2470,27 @@
         <v>13.69599</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>216.83284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>216.65222</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>19.574</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>409.33555</v>
+        <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>614.3604300000001</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2425,155 +2516,175 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4591.12406</v>
+        <v>6885.47487</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1948.41171</v>
+        <v>1811.30316</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4946.69714</v>
+        <v>3406.71057</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2017.91121</v>
+        <v>2012.4867</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3705.49917</v>
+        <v>3107.5966</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4352.91264</v>
+        <v>4205.80412</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7488.5335</v>
+        <v>4711.9359</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9688.209789999999</v>
+        <v>5540.561110000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>6896.27547</v>
+        <v>6830.59646</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7295.67685</v>
+        <v>7243.739</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>11507.66374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>12533.20685</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>135578.936</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>24248.9292</v>
+        <v>22836.56286</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>20511.89174</v>
+        <v>19398.01272</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>24049.29152</v>
+        <v>21821.39796</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>28362.07166</v>
+        <v>30134.17122</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>27644.15891</v>
+        <v>28073.45171</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>39442.75313</v>
+        <v>45121.6494</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>46047.21921</v>
+        <v>57682.04009</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>46771.63282</v>
+        <v>68189.35314000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>61750.87804</v>
+        <v>100834.26926</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>79366.59432999999</v>
+        <v>74541.40226999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>102165.12469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>60137.62480000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>73117.664</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>22882.529</v>
+        <v>22529.944</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>18114.25655</v>
+        <v>19028.55637</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>20142.58815</v>
+        <v>21820.7607</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>26358.99778</v>
+        <v>29437.12944</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>24981.85908</v>
+        <v>27304.9161</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>38045.98424000001</v>
+        <v>44856.25069</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>44871.13776999999</v>
+        <v>57615.86044</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>46117.54578</v>
+        <v>68140.98934999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>61024.09715</v>
+        <v>100284.2518</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>78849.01444</v>
+        <v>74023.82238</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>101677.33362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>59649.83373000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>72762.334</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1366.4002</v>
+        <v>306.61886</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2397.63519</v>
+        <v>369.45635</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3906.70337</v>
+        <v>0.6372599999999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2003.07388</v>
+        <v>697.04178</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2662.29983</v>
+        <v>768.53561</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1396.76889</v>
+        <v>265.39871</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1176.08144</v>
+        <v>66.17965</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>654.08704</v>
+        <v>48.36379</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>726.78089</v>
+        <v>550.0174599999999</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>517.57989</v>
@@ -2581,218 +2692,248 @@
       <c r="M46" s="48" t="n">
         <v>487.79107</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>355.33</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>41305.59914</v>
+        <v>38183.601</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>107888.3018</v>
+        <v>115166.57753</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>108136.28692</v>
+        <v>92492.09637</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>106684.76252</v>
+        <v>111123.71189</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>49488.01766</v>
+        <v>91961.97542999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>82048.81565999999</v>
+        <v>87124.40649000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>9953.32489</v>
+        <v>42658.37770999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>61500.23414</v>
+        <v>173369.43322</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>60863.66783999999</v>
+        <v>77692.01354</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>196842.69117</v>
+        <v>216489.63843</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>101611.34909</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>131812.85004</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>198004.632</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15958.07798</v>
+        <v>11523.58877</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>6524.86542</v>
+        <v>6158.751060000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8440.18777</v>
+        <v>9765.130349999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>19753.92403</v>
+        <v>8525.81223</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>17545.6571</v>
+        <v>13007.24219</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>41154.69197</v>
+        <v>26932.06502</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>21851.93295</v>
+        <v>21868.28665</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>25285.27916</v>
+        <v>35215.94462</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>29508.4588</v>
+        <v>29377.5604</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>41821.25515</v>
+        <v>29633.22584</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>28050.18712</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>25876.63196</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>40162.861</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1521.46624</v>
+        <v>1437.12009</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>228.20786</v>
+        <v>217.95277</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>505.94446</v>
+        <v>757.9549499999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>630.02914</v>
+        <v>636.4815600000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>511.38563</v>
+        <v>165.28586</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>206.35161</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>381.89815</v>
+        <v>395.19255</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>621.10211</v>
+        <v>602.4364300000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>576.98415</v>
+        <v>584.4913299999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>699.58512</v>
+        <v>1014.432</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3992.12056</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3830.76656</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2149.688</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>14436.61174</v>
+        <v>10086.46868</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6296.657560000001</v>
+        <v>5940.79829</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7934.243310000001</v>
+        <v>9007.1754</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>19123.89489</v>
+        <v>7889.33067</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>17034.27147</v>
+        <v>12841.95633</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>40948.34036</v>
+        <v>26725.71341</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>21470.0348</v>
+        <v>21473.0941</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>24664.17705</v>
+        <v>34613.50819</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>28931.47465</v>
+        <v>28793.06907</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>41121.67003</v>
+        <v>28618.79384</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>24058.06656</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>22045.8654</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>38013.173</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>36622.03953</v>
+        <v>35321.24734</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>18244.53952</v>
+        <v>15582.98597</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>72809.67906000001</v>
+        <v>64062.35862</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>17848.26525</v>
+        <v>16478.32997</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>12872.68559</v>
+        <v>11945.65192</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>45825.63547</v>
+        <v>31915.17269</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>65145.13281</v>
+        <v>63648.36115</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>83935.55931999999</v>
+        <v>48699.70961999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>22332.35339</v>
+        <v>19250.36159</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>53741.53918</v>
+        <v>50385.968</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>29216.26111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>24394.54101</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>21749.513</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.30808</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>144.92279</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>287.62515</v>
+        <v>279.10164</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>0</v>
+        <v>0.30808</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>0</v>
@@ -2810,208 +2951,236 @@
         <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>549.6635799999999</v>
+        <v>47.13358</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>39.27799</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5032.40242</v>
+        <v>5255.941870000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2984.54908</v>
+        <v>2451.28025</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>417.65869</v>
+        <v>541.8672299999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>977.86262</v>
+        <v>1365.11036</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1561.56088</v>
+        <v>1310.93514</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2486.76665</v>
+        <v>940.23337</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2620.83676</v>
+        <v>3008.2057</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2883.70574</v>
+        <v>2564.53169</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2286.67964</v>
+        <v>1326.76731</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1499.48431</v>
+        <v>921.22996</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4700.00721</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4600.876189999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1440.866</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>31589.32903</v>
+        <v>30064.99739</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>15115.06765</v>
+        <v>13131.70572</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>72104.39522000001</v>
+        <v>63241.38975</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>16870.40263</v>
+        <v>15112.91153</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>11311.12471</v>
+        <v>10634.71678</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>42625.40538</v>
+        <v>30261.47588</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>62524.29605</v>
+        <v>60640.15545000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>81010.54624</v>
+        <v>46093.87059000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>20045.67375</v>
+        <v>17923.59428</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>51692.39129</v>
+        <v>49417.60446</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>24476.97591</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>19793.66482</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>20308.647</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>20641.63759</v>
+        <v>14385.94243</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>96168.62769999998</v>
+        <v>105742.34262</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>43766.79563</v>
+        <v>38194.8681</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>108590.4213</v>
+        <v>103171.19415</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>54160.98917</v>
+        <v>93023.56570000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>77377.87216</v>
+        <v>82141.29882</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-33339.87497</v>
+        <v>878.3032100000009</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2849.95398</v>
+        <v>159885.66822</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>68039.77325</v>
+        <v>87819.21235000002</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>184922.40714</v>
+        <v>195736.89627</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>100445.2751</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>133294.94099</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>216417.98</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>21300.7591</v>
+        <v>20643.88982</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>23686.88407</v>
+        <v>25084.54599</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>25503.63091</v>
+        <v>23262.02393</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>28172.68589</v>
+        <v>25546.04601</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>29659.14995</v>
+        <v>28339.44853</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>34623.54034000001</v>
+        <v>32044.0658</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>32160.02436</v>
+        <v>31011.88265</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>30345.04416</v>
+        <v>28339.84837</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>38043.51725</v>
+        <v>32780.65534</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>51670.01472</v>
+        <v>52215.67152</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>43139.60816999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>41979.24826</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>62537.565</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-659.1215099999979</v>
+        <v>-6257.94739</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>72481.74363</v>
+        <v>80657.79663</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>18263.16472</v>
+        <v>14932.84417</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>80417.73540999999</v>
+        <v>77625.14814</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>24501.83922</v>
+        <v>64684.11717</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>42754.33182</v>
+        <v>50097.23302</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-65499.89933</v>
+        <v>-30133.57944</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-27495.09018</v>
+        <v>131545.81985</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>29996.256</v>
+        <v>55038.55701</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>133252.39242</v>
+        <v>143521.22475</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>57305.66693</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>91315.69273</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>153880.415</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>121</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>